--- a/src/test/resources/check_sheet_rep.xlsx
+++ b/src/test/resources/check_sheet_rep.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="テンプレート(RH7)" sheetId="6" r:id="rId7"/>
     <sheet name="テンプレート(Windows)" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="515">
   <si>
     <t>共通設定</t>
   </si>
@@ -1597,6 +1597,47 @@
   </si>
   <si>
     <t>エラーメッセージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>cent7</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y0</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>OS名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU数</t>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>MEM容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:ポートリスト</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1834,9 +1875,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1844,6 +1882,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2130,7 +2171,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,25 +2196,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -2283,7 +2324,9 @@
       <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>507</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2675,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N15"/>
+  <dimension ref="A3:N17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2690,7 +2733,7 @@
     <col min="9" max="11" width="16.625" customWidth="1"/>
     <col min="12" max="12" width="12.25" customWidth="1"/>
     <col min="13" max="13" width="24.75" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" bestFit="1" customWidth="1"/>
     <col min="15" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2738,7 +2781,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>493</v>
       </c>
@@ -2768,7 +2811,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>493</v>
       </c>
@@ -2776,185 +2819,203 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>481</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>485</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>484</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>514</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>514</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>493</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>490</v>
-      </c>
+      <c r="E7" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
@@ -2988,6 +3049,38 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2999,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3083,7 +3176,7 @@
   <dimension ref="A3:F91"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3127,7 +3220,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>508</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>59</v>
